--- a/PabloArriagada/maddison_database_project/data/Regional composition_web.xlsx
+++ b/PabloArriagada/maddison_database_project/data/Regional composition_web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\Google Drive\OWID\notebooks\maddison_database_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A86C659-4501-47EF-BF3C-C7879B12D97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9750E422-E1C7-45F5-A7A1-70241B25A299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B7B0E0DB-4549-4FE2-A1CC-B49F57401426}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="146">
   <si>
     <t>Western Europe</t>
   </si>
@@ -5575,10 +5575,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEAAA1A-DDC7-4492-8D62-63F8428A4F84}">
-  <dimension ref="A1:C305"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="C305" sqref="A302:C305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8894,50 +8894,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>10</v>
-      </c>
-      <c r="B302">
-        <v>1950</v>
-      </c>
-      <c r="C302" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>24</v>
-      </c>
-      <c r="B303">
-        <v>1950</v>
-      </c>
-      <c r="C303" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>38</v>
-      </c>
-      <c r="B304">
-        <v>1950</v>
-      </c>
-      <c r="C304" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>48</v>
-      </c>
-      <c r="B305">
-        <v>1950</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:C305" xr:uid="{5BEAAA1A-DDC7-4492-8D62-63F8428A4F84}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PabloArriagada/maddison_database_project/data/Regional composition_web.xlsx
+++ b/PabloArriagada/maddison_database_project/data/Regional composition_web.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Desktop\Google Drive\OWID\notebooks\maddison_database_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9750E422-E1C7-45F5-A7A1-70241B25A299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AF8331-C9CF-4E26-8A4D-60E9869D73FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B7B0E0DB-4549-4FE2-A1CC-B49F57401426}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="146">
   <si>
     <t>Western Europe</t>
   </si>
@@ -500,7 +500,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +510,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,6 +562,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2984D2D7-A00F-48C1-984F-8EA127A5F894}">
   <dimension ref="A1:AO45"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2039,7 +2046,7 @@
   <dimension ref="A1:BS302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C302"/>
+      <selection activeCell="N1" sqref="N1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5575,10 +5582,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BEAAA1A-DDC7-4492-8D62-63F8428A4F84}">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="C305" sqref="A302:C305"/>
+      <selection activeCell="G289" sqref="G289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8894,6 +8901,50 @@
         <v>7</v>
       </c>
     </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" s="5">
+        <v>1950</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B303" s="5">
+        <v>1950</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B304" s="5">
+        <v>1950</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B305" s="5">
+        <v>1950</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C305" xr:uid="{5BEAAA1A-DDC7-4492-8D62-63F8428A4F84}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
